--- a/_files/requirements/master_data/master-location.xlsx
+++ b/_files/requirements/master_data/master-location.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Master DB\Master Data Sample\xls Version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{78854C64-E240-41A4-8319-5AA0C8387705}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E8A3E70D-EDCF-4BCD-87C5-0FC1B0AC4001}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="91">
   <si>
     <t>code</t>
   </si>
@@ -130,18 +130,9 @@
     <t>Ben Mansour</t>
   </si>
   <si>
-    <t>Local Administrative Authority</t>
-  </si>
-  <si>
     <t>بن منصور</t>
   </si>
   <si>
-    <t>الهيئة الإدارية المحلية</t>
-  </si>
-  <si>
-    <t>Autorité administrative locale</t>
-  </si>
-  <si>
     <t>Postal Code</t>
   </si>
   <si>
@@ -302,6 +293,9 @@
   </si>
   <si>
     <t>منَسرَ</t>
+  </si>
+  <si>
+    <t>Zone</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1139,7 @@
   <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1188,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1437,7 +1431,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -1446,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -1466,7 +1460,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -1475,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -1495,7 +1489,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -1504,7 +1498,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -1533,10 +1527,10 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1556,16 +1550,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -1591,10 +1585,10 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -1620,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
@@ -1649,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
@@ -1678,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
@@ -1698,19 +1692,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1727,19 +1721,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -1756,19 +1750,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -1794,10 +1788,10 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
         <v>39</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1823,10 +1817,10 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -1852,10 +1846,10 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -1872,19 +1866,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1901,19 +1895,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -1930,19 +1924,19 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
@@ -1968,10 +1962,10 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -1997,10 +1991,10 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -2026,10 +2020,10 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
         <v>41</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
@@ -2046,19 +2040,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -2075,19 +2069,19 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
@@ -2104,19 +2098,19 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
@@ -2142,10 +2136,10 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -2171,10 +2165,10 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -2200,10 +2194,10 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
@@ -2220,19 +2214,19 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -2249,19 +2243,19 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -2278,19 +2272,19 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -2316,10 +2310,10 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -2345,10 +2339,10 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
@@ -2374,10 +2368,10 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
@@ -2394,19 +2388,19 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -2423,19 +2417,19 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
@@ -2452,19 +2446,19 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
@@ -2490,10 +2484,10 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -2519,10 +2513,10 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
@@ -2548,10 +2542,10 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -2568,19 +2562,19 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -2597,19 +2591,19 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -2626,19 +2620,19 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -2664,10 +2658,10 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -2693,10 +2687,10 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
@@ -2722,10 +2716,10 @@
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
@@ -2742,19 +2736,19 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
@@ -2771,19 +2765,19 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C57">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
@@ -2800,19 +2794,19 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C58">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E58" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -2838,10 +2832,10 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
@@ -2867,10 +2861,10 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -2896,10 +2890,10 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
@@ -2916,10 +2910,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -2945,10 +2939,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -2974,10 +2968,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -3003,19 +2997,19 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E65" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F65" t="s">
         <v>11</v>
@@ -3032,19 +3026,19 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C66">
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E66" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
@@ -3061,19 +3055,19 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C67">
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E67" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
@@ -3090,19 +3084,19 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C68">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E68" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s">
         <v>11</v>
@@ -3119,19 +3113,19 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C69">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
@@ -3148,19 +3142,19 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C70">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E70" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
@@ -3186,10 +3180,10 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
@@ -3215,10 +3209,10 @@
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E72" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
@@ -3244,10 +3238,10 @@
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
@@ -3264,19 +3258,19 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C74">
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E74" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -3293,19 +3287,19 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C75">
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E75" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
@@ -3322,19 +3316,19 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C76">
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E76" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
@@ -3360,10 +3354,10 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E77" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
@@ -3389,10 +3383,10 @@
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E78" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
@@ -3418,10 +3412,10 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E79" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -3438,19 +3432,19 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C80">
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E80" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s">
         <v>11</v>
@@ -3467,19 +3461,19 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
@@ -3496,19 +3490,19 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C82">
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -3534,10 +3528,10 @@
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E83" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F83" t="s">
         <v>11</v>
@@ -3563,10 +3557,10 @@
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E84" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
@@ -3592,10 +3586,10 @@
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E85" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -3612,19 +3606,19 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
@@ -3641,19 +3635,19 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C87">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
@@ -3670,19 +3664,19 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C88">
         <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E88" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -3708,10 +3702,10 @@
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E89" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F89" t="s">
         <v>11</v>
@@ -3737,10 +3731,10 @@
         <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E90" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
@@ -3766,10 +3760,10 @@
         <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E91" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -3786,19 +3780,19 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
@@ -3815,19 +3809,19 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C93">
         <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E93" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
@@ -3844,19 +3838,19 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C94">
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E94" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -3882,10 +3876,10 @@
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E95" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F95" t="s">
         <v>11</v>
@@ -3911,10 +3905,10 @@
         <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E96" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
@@ -3940,10 +3934,10 @@
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E97" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -3960,19 +3954,19 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C98">
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E98" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F98" t="s">
         <v>11</v>
@@ -3989,19 +3983,19 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C99">
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
@@ -4018,19 +4012,19 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" t="s">
         <v>80</v>
-      </c>
-      <c r="B100" t="s">
-        <v>83</v>
       </c>
       <c r="C100">
         <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E100" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
@@ -4056,10 +4050,10 @@
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E101" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F101" t="s">
         <v>11</v>
@@ -4085,10 +4079,10 @@
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E102" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
@@ -4114,10 +4108,10 @@
         <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E103" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -4134,19 +4128,19 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B104" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C104">
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E104" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F104" t="s">
         <v>11</v>
@@ -4163,19 +4157,19 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B105" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C105">
         <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E105" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
@@ -4192,19 +4186,19 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B106" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C106">
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E106" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -4230,10 +4224,10 @@
         <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E107" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F107" t="s">
         <v>11</v>
@@ -4259,10 +4253,10 @@
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E108" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
@@ -4288,10 +4282,10 @@
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E109" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
@@ -4317,7 +4311,7 @@
         <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E110" t="s">
         <v>33</v>
@@ -4346,7 +4340,7 @@
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E111" t="s">
         <v>33</v>
@@ -4375,7 +4369,7 @@
         <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E112" t="s">
         <v>33</v>
@@ -4404,7 +4398,7 @@
         <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E113" t="s">
         <v>33</v>
@@ -4433,7 +4427,7 @@
         <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E114" t="s">
         <v>33</v>
@@ -4462,7 +4456,7 @@
         <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E115" t="s">
         <v>33</v>
@@ -4491,7 +4485,7 @@
         <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E116" t="s">
         <v>33</v>
@@ -4520,7 +4514,7 @@
         <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E117" t="s">
         <v>33</v>
@@ -4549,7 +4543,7 @@
         <v>5</v>
       </c>
       <c r="D118" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E118" t="s">
         <v>33</v>
@@ -4578,7 +4572,7 @@
         <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E119" t="s">
         <v>33</v>
@@ -4607,7 +4601,7 @@
         <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E120" t="s">
         <v>33</v>
@@ -4636,7 +4630,7 @@
         <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E121" t="s">
         <v>33</v>
@@ -4657,6 +4651,6 @@
   </sheetData>
   <autoFilter ref="A1:I121" xr:uid="{36D86FC8-2198-47BC-BDB5-B85DA543D70A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>